--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1019</v>
+        <v>4893</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme Ribeiro</t>
+          <t>Vitor Gabriel Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>11738.22</v>
+        <v>4501.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8050</v>
+        <v>69247</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Sophia Viana</t>
+          <t>Sr. Henrique Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>2890.22</v>
+        <v>10579.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77369</v>
+        <v>55756</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietro Farias</t>
+          <t>Joaquim da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>11156.01</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9250</v>
+        <v>27763</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heloísa Nascimento</t>
+          <t>Miguel Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,106 +584,106 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>7497.68</v>
+        <v>10185.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42559</v>
+        <v>38343</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danilo da Paz</t>
+          <t>Amanda Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>12185.81</v>
+        <v>2781.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23623</v>
+        <v>89062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Vitor Aragão</t>
+          <t>Eduardo Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>9445.26</v>
+        <v>7217.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73187</v>
+        <v>4740</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cecília Carvalho</t>
+          <t>Lorena Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>9636.700000000001</v>
+        <v>12397.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41783</v>
+        <v>91801</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Lucas Pires</t>
+          <t>Gabriel Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -703,50 +703,50 @@
         <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>10456.48</v>
+        <v>8984.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35291</v>
+        <v>390</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Silva</t>
+          <t>Nina Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>4934.8</v>
+        <v>4717.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68846</v>
+        <v>77145</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Isabelly Dias</t>
+          <t>Sr. João Pedro Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>10461.82</v>
+        <v>4261.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4893</v>
+        <v>9253</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Carvalho</t>
+          <t>Cauã Farias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>4501.91</v>
+        <v>11883.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69247</v>
+        <v>50180</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Henrique Costela</t>
+          <t>Sr. João Vitor Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,229 +519,229 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>10579.33</v>
+        <v>8534.200000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55756</v>
+        <v>83379</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim da Luz</t>
+          <t>Rafaela Sales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>5858</v>
+        <v>10488.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27763</v>
+        <v>53694</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miguel Lima</t>
+          <t>Paulo Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>10185.24</v>
+        <v>11993.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38343</v>
+        <v>46615</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amanda Barros</t>
+          <t>Ana Sophia Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>2781.45</v>
+        <v>7932.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89062</v>
+        <v>93351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eduardo Aragão</t>
+          <t>Pedro Lucas Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>7217.38</v>
+        <v>6814.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4740</v>
+        <v>82498</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lorena Barbosa</t>
+          <t>Dr. Fernando Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>12397.47</v>
+        <v>4081.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91801</v>
+        <v>32687</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriel Mendes</t>
+          <t>Otávio Teixeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>8984.17</v>
+        <v>9583.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>390</v>
+        <v>55810</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nina Pinto</t>
+          <t>Sra. Agatha Moreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>4717.34</v>
+        <v>9602.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77145</v>
+        <v>44745</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. João Pedro Fogaça</t>
+          <t>Luiz Gustavo Nascimento</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>4261.4</v>
+        <v>5669.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9253</v>
+        <v>42220</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Farias</t>
+          <t>Gustavo Alves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>11883.42</v>
+        <v>12302.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50180</v>
+        <v>6940</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Castro</t>
+          <t>Evelyn da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>8534.200000000001</v>
+        <v>3717.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83379</v>
+        <v>96543</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rafaela Sales</t>
+          <t>João Gabriel Teixeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>10488.67</v>
+        <v>10624.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53694</v>
+        <v>68537</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paulo Lopes</t>
+          <t>Matheus Barbosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>11993.64</v>
+        <v>11900.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46615</v>
+        <v>49113</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Sophia Azevedo</t>
+          <t>Sr. Nathan Ferreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,140 +613,140 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>7932.62</v>
+        <v>7594.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93351</v>
+        <v>22540</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pedro Lucas Melo</t>
+          <t>Enrico Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>6814.74</v>
+        <v>12448.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82498</v>
+        <v>96154</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Fernando Vieira</t>
+          <t>Brenda Novaes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>4081.33</v>
+        <v>5522.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32687</v>
+        <v>85694</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Otávio Teixeira</t>
+          <t>João Vitor Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>9583.42</v>
+        <v>7075.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55810</v>
+        <v>93163</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Agatha Moreira</t>
+          <t>Srta. Beatriz Souza</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>9602.25</v>
+        <v>3519.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44745</v>
+        <v>13100</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Nascimento</t>
+          <t>Isabella Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>5669.3</v>
+        <v>10307.4</v>
       </c>
     </row>
   </sheetData>
